--- a/sga/frontend/Requisitos/Home office_ SuporteSaibweb 20032020 _ 30042020.xlsx
+++ b/sga/frontend/Requisitos/Home office_ SuporteSaibweb 20032020 _ 30042020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rycardo\Desktop\HOME OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sga\sga\sga\frontend\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37748F-2D9B-4319-9A29-D26371171B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{483CA72D-02B0-4ED4-AE6F-4B3F79AA8C1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1412,7 +1411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1781,6 +1780,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1798,9 +1800,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1879,6 +1878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2028,7 +2028,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E1EE-4220-8AD0-EBFBF24457A8}"/>
                 </c:ext>
@@ -2105,7 +2107,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E1EE-4220-8AD0-EBFBF24457A8}"/>
                 </c:ext>
@@ -2127,7 +2131,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-4BDF-4FF9-8641-F6C148B88B20}"/>
                 </c:ext>
@@ -2559,6 +2565,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2566,7 +2573,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2642,6 +2648,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5248,6 +5255,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5255,7 +5263,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6668,11 +6675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8AAABE-698C-464B-8508-7D1CD5273858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R563"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,31 +6700,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -6735,11 +6742,11 @@
       <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -17141,47 +17148,47 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D551" s="39"/>
+      <c r="D551" s="33"/>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D552" s="39"/>
+      <c r="D552" s="33"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D553" s="39"/>
+      <c r="D553" s="33"/>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D554" s="39"/>
+      <c r="D554" s="33"/>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D555" s="39"/>
+      <c r="D555" s="33"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D556" s="39"/>
+      <c r="D556" s="33"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D557" s="39"/>
+      <c r="D557" s="33"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D558" s="39"/>
+      <c r="D558" s="33"/>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D559" s="39"/>
+      <c r="D559" s="33"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D560" s="39"/>
+      <c r="D560" s="33"/>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D561" s="39"/>
+      <c r="D561" s="33"/>
     </row>
     <row r="562" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D562" s="39"/>
+      <c r="D562" s="33"/>
     </row>
     <row r="563" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D563" s="39"/>
+      <c r="D563" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E3" xr:uid="{D891A299-22C5-4F7E-9AC5-3EF76EA5194C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O4:P69">
+  <autoFilter ref="A3:E3"/>
+  <sortState ref="O4:P69">
     <sortCondition descending="1" ref="P4:P69"/>
   </sortState>
   <dataConsolidate/>
